--- a/Experiment 2/Trace Files/vegas-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/vegas-vegas/ThroughputGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>CBR</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Vegas Flow 2</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="53415952"/>
-        <c:axId val="53425744"/>
+        <c:axId val="592241792"/>
+        <c:axId val="592242336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53415952"/>
+        <c:axId val="592241792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53425744"/>
+        <c:crossAx val="592242336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53425744"/>
+        <c:axId val="592242336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
@@ -720,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53415952"/>
+        <c:crossAx val="592241792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1098,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="53429008"/>
-        <c:axId val="53416496"/>
+        <c:axId val="592242880"/>
+        <c:axId val="592240160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="53429008"/>
+        <c:axId val="592242880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53416496"/>
+        <c:crossAx val="592240160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1209,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53416496"/>
+        <c:axId val="592240160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1318,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53429008"/>
+        <c:crossAx val="592242880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2841,10 +2844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3003,6 +3006,15 @@
         <v>463.90806321999997</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.47403851533700614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/vegas-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/vegas-vegas/ThroughputGraph.xlsx
@@ -248,34 +248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>397.00492961499998</c:v>
+                  <c:v>244.09030039000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>397.54138859599999</c:v>
+                  <c:v>244.66596423199999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>397.59596496400002</c:v>
+                  <c:v>244.78832608100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>396.01991347400002</c:v>
+                  <c:v>242.90781986299999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.70322121200002</c:v>
+                  <c:v>236.737919256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367.35854878700002</c:v>
+                  <c:v>211.34276318400001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.96909062600002</c:v>
+                  <c:v>219.32904621599999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>362.39821904600001</c:v>
+                  <c:v>206.261106781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>361.69934834499998</c:v>
+                  <c:v>205.37333929900001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>479.76917399199999</c:v>
+                  <c:v>219.76090014100001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,34 +354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>397.65419624800001</c:v>
+                  <c:v>244.768213282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>396.76359286399997</c:v>
+                  <c:v>243.77637470499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>397.26325206899998</c:v>
+                  <c:v>244.36551194800001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397.42826400400003</c:v>
+                  <c:v>244.47436901399999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.390683384</c:v>
+                  <c:v>236.28706556399999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>364.68995736800002</c:v>
+                  <c:v>208.42889614000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.42686880100001</c:v>
+                  <c:v>218.54670662999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>361.76042972300002</c:v>
+                  <c:v>205.484327178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>362.640707034</c:v>
+                  <c:v>204.66495347899999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>492.72896039599999</c:v>
+                  <c:v>217.22602367799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="592241792"/>
-        <c:axId val="592242336"/>
+        <c:axId val="-666890320"/>
+        <c:axId val="-666892496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="592241792"/>
+        <c:axId val="-666890320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592242336"/>
+        <c:crossAx val="-666892496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,11 +614,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="592242336"/>
+        <c:axId val="-666892496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
-          <c:min val="350"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -723,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592241792"/>
+        <c:crossAx val="-666890320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -952,34 +952,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>397.00492961499998</c:v>
+                  <c:v>244.09030039000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>397.54138859599999</c:v>
+                  <c:v>244.66596423199999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>397.59596496400002</c:v>
+                  <c:v>244.78832608100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>396.01991347400002</c:v>
+                  <c:v>242.90781986299999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.70322121200002</c:v>
+                  <c:v>236.737919256</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>367.35854878700002</c:v>
+                  <c:v>211.34276318400001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.96909062600002</c:v>
+                  <c:v>219.32904621599999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>362.39821904600001</c:v>
+                  <c:v>206.261106781</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>361.69934834499998</c:v>
+                  <c:v>205.37333929900001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>479.76917399199999</c:v>
+                  <c:v>219.76090014100001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,34 +1058,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>397.65419624800001</c:v>
+                  <c:v>244.768213282</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>396.76359286399997</c:v>
+                  <c:v>243.77637470499999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>397.26325206899998</c:v>
+                  <c:v>244.36551194800001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>397.42826400400003</c:v>
+                  <c:v>244.47436901399999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.390683384</c:v>
+                  <c:v>236.28706556399999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>364.68995736800002</c:v>
+                  <c:v>208.42889614000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>374.42686880100001</c:v>
+                  <c:v>218.54670662999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>361.76042972300002</c:v>
+                  <c:v>205.484327178</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>362.640707034</c:v>
+                  <c:v>204.66495347899999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>492.72896039599999</c:v>
+                  <c:v>217.22602367799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="592242880"/>
-        <c:axId val="592240160"/>
+        <c:axId val="-666900656"/>
+        <c:axId val="-666885424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="592242880"/>
+        <c:axId val="-666900656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592240160"/>
+        <c:crossAx val="-666885424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,11 +1212,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="592240160"/>
+        <c:axId val="-666885424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="350"/>
+          <c:max val="250"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1321,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="592242880"/>
+        <c:crossAx val="-666900656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2871,10 +2871,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>397.00492961499998</v>
+        <v>244.09030039000001</v>
       </c>
       <c r="C2" s="1">
-        <v>397.65419624800001</v>
+        <v>244.768213282</v>
       </c>
       <c r="D2" s="1">
         <v>714.26489023600004</v>
@@ -2885,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>397.54138859599999</v>
+        <v>244.66596423199999</v>
       </c>
       <c r="C3" s="1">
-        <v>396.76359286399997</v>
+        <v>243.77637470499999</v>
       </c>
       <c r="D3" s="1">
         <v>717.74074386200004</v>
@@ -2899,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>397.59596496400002</v>
+        <v>244.78832608100001</v>
       </c>
       <c r="C4" s="1">
-        <v>397.26325206899998</v>
+        <v>244.36551194800001</v>
       </c>
       <c r="D4" s="1">
         <v>718.07487061400002</v>
@@ -2913,10 +2913,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>396.01991347400002</v>
+        <v>242.90781986299999</v>
       </c>
       <c r="C5" s="1">
-        <v>397.42826400400003</v>
+        <v>244.47436901399999</v>
       </c>
       <c r="D5" s="1">
         <v>715.38466690200005</v>
@@ -2927,10 +2927,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>390.70322121200002</v>
+        <v>236.737919256</v>
       </c>
       <c r="C6" s="1">
-        <v>390.390683384</v>
+        <v>236.28706556399999</v>
       </c>
       <c r="D6" s="1">
         <v>666.31559228399999</v>
@@ -2941,10 +2941,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>367.35854878700002</v>
+        <v>211.34276318400001</v>
       </c>
       <c r="C7" s="1">
-        <v>364.68995736800002</v>
+        <v>208.42889614000001</v>
       </c>
       <c r="D7" s="1">
         <v>531.93584201199997</v>
@@ -2955,10 +2955,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>374.96909062600002</v>
+        <v>219.32904621599999</v>
       </c>
       <c r="C8" s="1">
-        <v>374.42686880100001</v>
+        <v>218.54670662999999</v>
       </c>
       <c r="D8" s="1">
         <v>562.04174917900002</v>
@@ -2969,10 +2969,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>362.39821904600001</v>
+        <v>206.261106781</v>
       </c>
       <c r="C9" s="1">
-        <v>361.76042972300002</v>
+        <v>205.484327178</v>
       </c>
       <c r="D9" s="1">
         <v>502.604860997</v>
@@ -2983,10 +2983,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>361.69934834499998</v>
+        <v>205.37333929900001</v>
       </c>
       <c r="C10" s="1">
-        <v>362.640707034</v>
+        <v>204.66495347899999</v>
       </c>
       <c r="D10" s="1">
         <v>498.084866396</v>
@@ -2997,10 +2997,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>479.76917399199999</v>
+        <v>219.76090014100001</v>
       </c>
       <c r="C11" s="2">
-        <v>492.72896039599999</v>
+        <v>217.22602367799999</v>
       </c>
       <c r="D11" s="2">
         <v>463.90806321999997</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="C14">
         <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.47403851533700614</v>
+        <v>0.46290724914212411</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/vegas-vegas/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/vegas-vegas/ThroughputGraph.xlsx
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-666890320"/>
-        <c:axId val="-666892496"/>
+        <c:axId val="-1647068816"/>
+        <c:axId val="-1647060112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-666890320"/>
+        <c:axId val="-1647068816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666892496"/>
+        <c:crossAx val="-1647060112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-666892496"/>
+        <c:axId val="-1647060112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
@@ -723,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666890320"/>
+        <c:crossAx val="-1647068816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-666900656"/>
-        <c:axId val="-666885424"/>
+        <c:axId val="-1647063920"/>
+        <c:axId val="-1647065552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-666900656"/>
+        <c:axId val="-1647063920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666885424"/>
+        <c:crossAx val="-1647065552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-666885424"/>
+        <c:axId val="-1647065552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -1321,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-666900656"/>
+        <c:crossAx val="-1647063920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3011,8 +3011,8 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.46290724914212411</v>
+        <f>TTEST(B2:B11,C2:C11,2,3)</f>
+        <v>0.92581449828424822</v>
       </c>
     </row>
   </sheetData>
